--- a/public/upload/export_excel/all-05-2025.xlsx
+++ b/public/upload/export_excel/all-05-2025.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>สาขาเจริญใจ</t>
   </si>
@@ -89,18 +89,48 @@
     <t>เบอร์โทร</t>
   </si>
   <si>
+    <t>A305</t>
+  </si>
+  <si>
+    <t>3,465</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>4,465</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>3,965</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
     <t>B101</t>
   </si>
   <si>
-    <t>3,465</t>
+    <t>3,545</t>
   </si>
   <si>
     <t>A207</t>
   </si>
   <si>
-    <t>3,965</t>
-  </si>
-  <si>
     <t>A206</t>
   </si>
   <si>
@@ -125,31 +155,10 @@
     <t>A201</t>
   </si>
   <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>4,465</t>
-  </si>
-  <si>
     <t>A101</t>
   </si>
   <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t>A104</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
     <t>3,975</t>
-  </si>
-  <si>
-    <t>A102</t>
   </si>
   <si>
     <t>4,165</t>
@@ -495,10 +504,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:X19"/>
+      <selection activeCell="A1" sqref="A1:X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,7 +646,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="D4" s="1">
         <v>105</v>
@@ -697,7 +706,7 @@
         <v>3000</v>
       </c>
       <c r="C5" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1">
         <v>105</v>
@@ -710,7 +719,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1">
         <v>3000</v>
@@ -751,10 +760,10 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C6" s="1">
         <v>360</v>
@@ -770,43 +779,43 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="R6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="V6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="W6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X6" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -814,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C7" s="1">
         <v>360</v>
@@ -830,51 +839,51 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="R7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="V7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="W7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X7" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C8" s="1">
         <v>360</v>
@@ -890,51 +899,51 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="R8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="V8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="W8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X8" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C9" s="1">
         <v>360</v>
@@ -950,51 +959,51 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="R9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="V9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="W9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X9" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="C10" s="1">
         <v>360</v>
@@ -1010,51 +1019,51 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="R10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="S10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="T10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="U10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="V10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="W10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="X10" s="1">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C11" s="1">
         <v>360</v>
@@ -1070,51 +1079,51 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="R11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="S11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="V11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="W11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X11" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C12" s="1">
         <v>360</v>
@@ -1130,54 +1139,54 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X12" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C13" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1">
         <v>105</v>
@@ -1190,54 +1199,54 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X13" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C14" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="D14" s="1">
         <v>105</v>
@@ -1250,51 +1259,51 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X14" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C15" s="1">
         <v>360</v>
@@ -1310,51 +1319,51 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X15" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C16" s="1">
         <v>270</v>
@@ -1370,51 +1379,51 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X16" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="C17" s="1">
         <v>270</v>
@@ -1430,51 +1439,51 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="R17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="S17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="U17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="V17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="W17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="X17" s="1">
-        <v>3500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C18" s="1">
         <v>270</v>
@@ -1490,48 +1499,48 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="S18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="U18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="V18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="W18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="X18" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>3000</v>
@@ -1550,42 +1559,582 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="W19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="N19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="P19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="R19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="S19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="T19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="U19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="V19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="W19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="B20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>360</v>
+      </c>
+      <c r="D20" s="1">
+        <v>105</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="P20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="W20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>360</v>
+      </c>
+      <c r="D21" s="1">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>360</v>
+      </c>
+      <c r="D22" s="1">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>360</v>
+      </c>
+      <c r="D23" s="1">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>360</v>
+      </c>
+      <c r="D24" s="1">
+        <v>105</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X24" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>270</v>
+      </c>
+      <c r="D25" s="1">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X25" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>270</v>
+      </c>
+      <c r="D26" s="1">
+        <v>105</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="U26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="V26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="W26" s="1">
+        <v>3500</v>
+      </c>
+      <c r="X26" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>270</v>
+      </c>
+      <c r="D27" s="1">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="W27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="X27" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>270</v>
+      </c>
+      <c r="D28" s="1">
+        <v>105</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="V28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="W28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="X28" s="1">
         <v>3000</v>
       </c>
     </row>
